--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/Barshapara Khal/Input Output/Data_Prep_Barshapara_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/Barshapara Khal/Input Output/Data_Prep_Barshapara_khal_Dataprep_Input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Drawing_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -148,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -290,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,14 +506,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -555,7 +565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -581,7 +591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -607,7 +617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -633,7 +643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -659,7 +669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -685,7 +695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -711,7 +721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -737,7 +747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -763,7 +773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -789,7 +799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -815,7 +825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -841,7 +851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -867,7 +877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -893,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/Barshapara Khal/Input Output/Data_Prep_Barshapara_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/Barshapara Khal/Input Output/Data_Prep_Barshapara_khal_Dataprep_Input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Drawing_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -148,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,11 +212,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -295,7 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,7 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,17 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -565,7 +555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -591,7 +581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -617,7 +607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -643,7 +633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -669,7 +659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,7 +685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -721,7 +711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -747,7 +737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -773,7 +763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -799,7 +789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -825,7 +815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -851,7 +841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,7 +867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -903,7 +893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
